--- a/features/微众商品管理系统/合作客户端/合作客户端用户故事.xlsx
+++ b/features/微众商品管理系统/合作客户端/合作客户端用户故事.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="商品" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="226">
   <si>
     <t>author</t>
   </si>
@@ -1028,6 +1028,50 @@
   </si>
   <si>
     <t>站内消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户查看订单列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表中存在订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户访问“订单”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得订单列表信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端订单列表查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置查询条件并点击【查询】显示正确的查询结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature分支：panda_feature
+feature路径：\Git\panda\features\微众商品管理系统\合作客户端\订单
+feature名称：view_order_list.feature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature分支：panda_feature
+feature路径：\Git\panda\features\微众商品管理系统\合作客户端\订单
+feature名称：order_list_query.feature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三香</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1213,7 +1257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1268,6 +1312,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1277,56 +1363,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1632,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="E28" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1687,11 +1734,11 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="29" t="s">
         <v>103</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -1703,7 +1750,7 @@
       <c r="F2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="25" t="s">
         <v>132</v>
       </c>
       <c r="H2" s="6"/>
@@ -1712,9 +1759,9 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="27"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="12" t="s">
         <v>100</v>
       </c>
@@ -1724,19 +1771,19 @@
       <c r="F3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="26"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="27" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -1754,17 +1801,17 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="12" t="s">
         <v>119</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="25" t="s">
         <v>132</v>
       </c>
       <c r="H5" s="6"/>
@@ -1773,29 +1820,29 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="13" t="s">
         <v>120</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="29" t="s">
         <v>123</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -1813,10 +1860,10 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="26"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="31"/>
-      <c r="D8" s="27"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="12" t="s">
         <v>115</v>
       </c>
@@ -1832,17 +1879,17 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="31"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="12" t="s">
         <v>116</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="25" t="s">
         <v>137</v>
       </c>
       <c r="H9" s="6"/>
@@ -1851,10 +1898,10 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="26"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="31"/>
-      <c r="D10" s="27"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="12" t="s">
         <v>134</v>
       </c>
@@ -1868,27 +1915,27 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="26"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="12" t="s">
         <v>136</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="81" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
-      <c r="B12" s="33"/>
+    <row r="12" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="28"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="31"/>
-      <c r="D12" s="27"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="12" t="s">
         <v>128</v>
       </c>
@@ -1903,13 +1950,13 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="26"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="27" t="s">
+    <row r="13" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A13" s="28"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="29" t="s">
         <v>111</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -1926,11 +1973,11 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="26"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+    <row r="14" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A14" s="28"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="12" t="s">
         <v>126</v>
       </c>
@@ -1946,11 +1993,11 @@
       <c r="K14" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="33"/>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="22" t="s">
         <v>166</v>
       </c>
       <c r="D17" s="19" t="s">
@@ -1962,18 +2009,18 @@
       <c r="F17" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="35"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="33"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="19" t="s">
         <v>144</v>
       </c>
@@ -1983,16 +2030,16 @@
       <c r="F18" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="35"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="33"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="23" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="32" t="s">
         <v>173</v>
       </c>
       <c r="D19" s="19" t="s">
@@ -2007,16 +2054,16 @@
       <c r="G19" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="H19" s="35"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="33"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="23" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="32" t="s">
         <v>150</v>
       </c>
       <c r="E20" s="16" t="s">
@@ -2028,16 +2075,16 @@
       <c r="G20" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="H20" s="35"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:11" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="33"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="23"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="17" t="s">
         <v>152</v>
       </c>
@@ -2047,15 +2094,15 @@
       <c r="G21" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="H21" s="35"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
     </row>
     <row r="22" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="33"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="24"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="19" t="s">
         <v>154</v>
       </c>
@@ -2068,14 +2115,14 @@
       <c r="G22" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="H22" s="35"/>
+      <c r="H22" s="21"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
     </row>
     <row r="23" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="33"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="19" t="s">
         <v>161</v>
       </c>
@@ -2091,15 +2138,15 @@
       <c r="G23" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="H23" s="35"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="33"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="23" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="32" t="s">
         <v>174</v>
       </c>
       <c r="D24" s="19" t="s">
@@ -2111,18 +2158,18 @@
       <c r="F24" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="H24" s="35"/>
+      <c r="H24" s="21"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="33"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="24"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="19" t="s">
         <v>144</v>
       </c>
@@ -2132,16 +2179,16 @@
       <c r="F25" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="35"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
     </row>
     <row r="26" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="33"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="23" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="32" t="s">
         <v>175</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -2156,16 +2203,16 @@
       <c r="G26" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H26" s="35"/>
+      <c r="H26" s="21"/>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
     </row>
     <row r="27" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="33"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="23" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="32" t="s">
         <v>150</v>
       </c>
       <c r="E27" s="16" t="s">
@@ -2177,16 +2224,16 @@
       <c r="G27" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H27" s="35"/>
+      <c r="H27" s="21"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
     </row>
     <row r="28" spans="1:11" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="33"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="23"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="17" t="s">
         <v>152</v>
       </c>
@@ -2196,15 +2243,15 @@
       <c r="G28" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="H28" s="35"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
     </row>
     <row r="29" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="33"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="24"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="19" t="s">
         <v>154</v>
       </c>
@@ -2217,18 +2264,18 @@
       <c r="G29" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="H29" s="35"/>
+      <c r="H29" s="21"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A30" s="33"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="24" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="27" t="s">
         <v>189</v>
       </c>
       <c r="E30" s="16" t="s">
@@ -2245,11 +2292,11 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="33"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="36"/>
+    <row r="31" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A31" s="24"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="16" t="s">
         <v>192</v>
       </c>
@@ -2265,12 +2312,12 @@
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="33"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="24" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="27" t="s">
         <v>190</v>
       </c>
       <c r="E32" s="16" t="s">
@@ -2288,17 +2335,17 @@
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="33"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="36"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="16" t="s">
         <v>181</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="G33" s="25" t="s">
         <v>199</v>
       </c>
       <c r="H33" s="6"/>
@@ -2307,29 +2354,29 @@
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A34" s="33"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="36"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="16" t="s">
         <v>182</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="33"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="24" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="22" t="s">
         <v>191</v>
       </c>
       <c r="E35" s="16" t="s">
@@ -2347,10 +2394,10 @@
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="A36" s="33"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="16" t="s">
         <v>195</v>
       </c>
@@ -2367,15 +2414,7 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B17:B36"/>
-    <mergeCell ref="A17:A36"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="G17:G18"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="C2:C3"/>
@@ -2388,6 +2427,15 @@
     <mergeCell ref="D7:D12"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="B2:B14"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B17:B36"/>
+    <mergeCell ref="A17:A36"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="C32:C34"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="D27:D28"/>
@@ -2395,7 +2443,6 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="G17:G18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2405,12 +2452,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="7" max="7" width="69" customWidth="1"/>
+    <col min="10" max="10" width="16.25" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2475,13 +2623,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>64</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -2493,7 +2641,7 @@
       <c r="F2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="25" t="s">
         <v>92</v>
       </c>
       <c r="H2" s="6"/>
@@ -2502,9 +2650,9 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="7" t="s">
         <v>60</v>
       </c>
@@ -2514,19 +2662,19 @@
       <c r="F3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="24" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -2544,10 +2692,10 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="9" t="s">
         <v>68</v>
       </c>
@@ -2563,12 +2711,12 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="24" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="22" t="s">
         <v>78</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -2586,10 +2734,10 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="7" t="s">
         <v>74</v>
       </c>
@@ -2605,15 +2753,15 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="24" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="22" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -2628,11 +2776,11 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="7" t="s">
         <v>81</v>
       </c>
@@ -2645,15 +2793,15 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="25" t="s">
         <v>96</v>
       </c>
       <c r="H10" s="6"/>
@@ -2662,25 +2810,25 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="7" t="s">
         <v>86</v>
       </c>
@@ -2781,22 +2929,22 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="37"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>202</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>205</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="32" t="s">
         <v>212</v>
       </c>
       <c r="H2" s="6"/>
@@ -2806,16 +2954,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="38"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G3" s="24"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -2823,12 +2971,12 @@
     </row>
     <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="38"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="6" t="s">
         <v>210</v>
       </c>
@@ -2842,12 +2990,12 @@
     </row>
     <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="39"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="6" t="s">
         <v>211</v>
       </c>
@@ -2876,7 +3024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9:D11"/>
     </sheetView>
   </sheetViews>
@@ -2929,13 +3077,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -2947,7 +3095,7 @@
       <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="25" t="s">
         <v>45</v>
       </c>
       <c r="H2" s="6"/>
@@ -2956,9 +3104,9 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
@@ -2968,19 +3116,19 @@
       <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="24" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -2998,10 +3146,10 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
@@ -3017,17 +3165,17 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="25" t="s">
         <v>46</v>
       </c>
       <c r="H6" s="6"/>
@@ -3036,12 +3184,12 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="24" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -3050,17 +3198,17 @@
       <c r="F7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="8" t="s">
         <v>29</v>
       </c>
@@ -3076,12 +3224,12 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="20" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -3099,10 +3247,10 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="7" t="s">
         <v>48</v>
       </c>
@@ -3118,12 +3266,12 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="24"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="6" t="s">
         <v>35</v>
       </c>
@@ -3139,15 +3287,15 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="24" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="22" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -3162,11 +3310,11 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="7" t="s">
         <v>40</v>
       </c>
@@ -3179,11 +3327,11 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="7" t="s">
         <v>41</v>
       </c>
@@ -3196,11 +3344,11 @@
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -3215,11 +3363,11 @@
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="7" t="s">
         <v>40</v>
       </c>
@@ -3232,11 +3380,11 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="9" t="s">
         <v>44</v>
       </c>
@@ -3250,11 +3398,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="D12:D17"/>
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="A2:A17"/>
@@ -3265,6 +3408,11 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="D12:D17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
